--- a/data/invoice_data.xlsx
+++ b/data/invoice_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/guanplus-test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doghome/work/guanplus-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一般纳税人，收专票" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
   <si>
     <t>发票号</t>
     <rPh sb="0" eb="1">
@@ -1208,9 +1208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10000022</t>
-  </si>
-  <si>
     <t>对方信息</t>
     <rPh sb="0" eb="1">
       <t>dui fang</t>
@@ -1310,6 +1307,10 @@
   </si>
   <si>
     <t>00000022</t>
+  </si>
+  <si>
+    <t>00000023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1514,8 +1515,8 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1828,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1884,8 +1885,8 @@
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>96</v>
+      <c r="C2" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>77</v>
@@ -1917,8 +1918,8 @@
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>97</v>
+      <c r="C3" s="42" t="s">
+        <v>96</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>78</v>
@@ -1950,8 +1951,8 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>98</v>
+      <c r="C4" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>78</v>
@@ -1983,8 +1984,8 @@
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>99</v>
+      <c r="C5" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>78</v>
@@ -2016,8 +2017,8 @@
       <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>100</v>
+      <c r="C6" s="42" t="s">
+        <v>99</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>78</v>
@@ -2049,8 +2050,8 @@
       <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>101</v>
+      <c r="C7" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>78</v>
@@ -2082,8 +2083,8 @@
       <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>102</v>
+      <c r="C8" s="42" t="s">
+        <v>101</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>78</v>
@@ -2115,8 +2116,8 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>103</v>
+      <c r="C9" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>78</v>
@@ -2148,8 +2149,8 @@
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>104</v>
+      <c r="C10" s="42" t="s">
+        <v>103</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>78</v>
@@ -2181,8 +2182,8 @@
       <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>105</v>
+      <c r="C11" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>79</v>
@@ -2214,8 +2215,8 @@
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>106</v>
+      <c r="C12" s="42" t="s">
+        <v>105</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>79</v>
@@ -2247,8 +2248,8 @@
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>107</v>
+      <c r="C13" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>79</v>
@@ -2280,8 +2281,8 @@
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>108</v>
+      <c r="C14" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>79</v>
@@ -2313,8 +2314,8 @@
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>109</v>
+      <c r="C15" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>79</v>
@@ -2346,8 +2347,8 @@
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>110</v>
+      <c r="C16" s="42" t="s">
+        <v>109</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>79</v>
@@ -2379,8 +2380,8 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>111</v>
+      <c r="C17" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>79</v>
@@ -2412,8 +2413,8 @@
       <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>112</v>
+      <c r="C18" s="42" t="s">
+        <v>111</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>60</v>
@@ -2445,8 +2446,8 @@
       <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>113</v>
+      <c r="C19" s="42" t="s">
+        <v>112</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>60</v>
@@ -2478,8 +2479,8 @@
       <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>114</v>
+      <c r="C20" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>60</v>
@@ -2511,8 +2512,8 @@
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>115</v>
+      <c r="C21" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>60</v>
@@ -2544,8 +2545,8 @@
       <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>116</v>
+      <c r="C22" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>81</v>
@@ -2576,8 +2577,8 @@
       <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>117</v>
+      <c r="C23" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>80</v>
@@ -2630,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2645,16 +2646,16 @@
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -2687,13 +2688,17 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="F2" s="40">
         <v>0.13</v>
       </c>
@@ -2727,13 +2732,17 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>62</v>
+      </c>
       <c r="F3" s="41">
         <v>0.17</v>
       </c>
@@ -2767,13 +2776,17 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+        <v>92</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>66</v>
+      </c>
       <c r="F4" s="41">
         <v>0.17</v>
       </c>

--- a/data/invoice_data.xlsx
+++ b/data/invoice_data.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doghome/work/guanplus-test/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/guanplus-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="一般纳税人，收专票" sheetId="1" r:id="rId1"/>
     <sheet name="一般纳税人，收专票2" sheetId="2" r:id="rId2"/>
-    <sheet name="sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="一般纳税人，开票导入" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="174">
   <si>
     <t>发票号</t>
     <rPh sb="0" eb="1">
@@ -1170,20 +1170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>类别p</t>
-    <rPh sb="0" eb="1">
-      <t>lei bie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别c</t>
-    <rPh sb="0" eb="1">
-      <t>lei bie</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1310,6 +1296,549 @@
   </si>
   <si>
     <t>00000023</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发生日（2017/1/1）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类型</t>
+  </si>
+  <si>
+    <t>发票状态</t>
+  </si>
+  <si>
+    <t>对方信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>部门性质</t>
+  </si>
+  <si>
+    <t>税率</t>
+  </si>
+  <si>
+    <t>价税合计</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>发票代码</t>
+    <rPh sb="0" eb="1">
+      <t>fa piao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai ma</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票号码</t>
+    <rPh sb="0" eb="1">
+      <t>fa piao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票</t>
+    <rPh sb="0" eb="1">
+      <t>pu piao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税控自开</t>
+    <rPh sb="0" eb="1">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao sho</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普－自开－服务－管理，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>shang mao lei</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>qi ye</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000001</t>
+  </si>
+  <si>
+    <t>税务代开</t>
+    <rPh sb="0" eb="1">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普－代开－服务－管理，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000002</t>
+  </si>
+  <si>
+    <t>专票</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>piao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专－自开－服务－管理，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000003</t>
+  </si>
+  <si>
+    <t>专－代开－服务－管理，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
+    <rPh sb="0" eb="1">
+      <t>wu piao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开发票</t>
+    <rPh sb="0" eb="1">
+      <t>wei kai fa piao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无－未开－服务－管理，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000005</t>
+  </si>
+  <si>
+    <t>销售部门</t>
+    <rPh sb="0" eb="1">
+      <t>xiao shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普－自开－服务－销售，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000006</t>
+  </si>
+  <si>
+    <t>普－代开－服务－销售，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000007</t>
+  </si>
+  <si>
+    <t>专－自开－服务－销售，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000008</t>
+  </si>
+  <si>
+    <t>专－代开－服务－销售，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无－未开－服务－销售，借－112201单位，贷－500101商品销售收入（商贸类企业），22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000010</t>
+  </si>
+  <si>
+    <t>服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普－自开－商品－管理，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>p tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>dan wie</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>dai fang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>fu wu shou ru</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xiao xiang shui e</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000011</t>
+  </si>
+  <si>
+    <t>普－代开－商品－管理，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>p tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000012</t>
+  </si>
+  <si>
+    <t>专－自开－商品－管理，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000013</t>
+  </si>
+  <si>
+    <t>专－代开－商品－管理，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无－未开－商品－管理，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wie kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>guan li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000015</t>
+  </si>
+  <si>
+    <t>普－自开－商品－销售，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000016</t>
+  </si>
+  <si>
+    <t>普－代开－商品－销售，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>pu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000017</t>
+  </si>
+  <si>
+    <t>专－自开－商品－销售，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000018</t>
+  </si>
+  <si>
+    <t>专－代开－商品－销售，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无－未开－商品－销售，借－112201单位，贷－500103服务收入，22210106销项税额</t>
+    <rPh sb="0" eb="1">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wie kai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xiao shou</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1321,7 +1850,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1368,6 +1897,27 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1472,7 +2022,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1517,6 +2067,29 @@
     <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1829,8 +2402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1886,7 +2459,7 @@
         <v>53</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>77</v>
@@ -1898,7 +2471,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>7</v>
@@ -1919,7 +2492,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>78</v>
@@ -1931,7 +2504,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>7</v>
@@ -1952,7 +2525,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>78</v>
@@ -1964,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>30</v>
@@ -1985,7 +2558,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>78</v>
@@ -1997,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>32</v>
@@ -2018,7 +2591,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>78</v>
@@ -2030,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>33</v>
@@ -2051,7 +2624,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>78</v>
@@ -2063,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>35</v>
@@ -2084,7 +2657,7 @@
         <v>53</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>78</v>
@@ -2096,7 +2669,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>36</v>
@@ -2117,7 +2690,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>78</v>
@@ -2129,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>38</v>
@@ -2150,7 +2723,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>78</v>
@@ -2162,7 +2735,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>39</v>
@@ -2183,7 +2756,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="32" t="s">
         <v>79</v>
@@ -2195,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>7</v>
@@ -2216,7 +2789,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>79</v>
@@ -2228,7 +2801,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>41</v>
@@ -2249,7 +2822,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>79</v>
@@ -2261,7 +2834,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>43</v>
@@ -2282,7 +2855,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>79</v>
@@ -2294,7 +2867,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>44</v>
@@ -2315,7 +2888,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>79</v>
@@ -2327,7 +2900,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>36</v>
@@ -2348,7 +2921,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>79</v>
@@ -2360,7 +2933,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>38</v>
@@ -2381,7 +2954,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>79</v>
@@ -2393,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>7</v>
@@ -2414,7 +2987,7 @@
         <v>53</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>60</v>
@@ -2426,7 +2999,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="18" t="s">
         <v>32</v>
@@ -2447,7 +3020,7 @@
         <v>53</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="29" t="s">
         <v>60</v>
@@ -2459,7 +3032,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H19" s="18" t="s">
         <v>33</v>
@@ -2480,7 +3053,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>60</v>
@@ -2492,7 +3065,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H20" s="18" t="s">
         <v>48</v>
@@ -2513,7 +3086,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>60</v>
@@ -2525,7 +3098,7 @@
         <v>8</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>41</v>
@@ -2546,7 +3119,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>81</v>
@@ -2558,7 +3131,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H22" s="21" t="s">
         <v>7</v>
@@ -2578,7 +3151,7 @@
         <v>53</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>80</v>
@@ -2590,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>7</v>
@@ -2631,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2646,16 +3219,16 @@
         <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -2688,10 +3261,10 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>60</v>
@@ -2732,10 +3305,10 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>60</v>
@@ -2776,10 +3349,10 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="43" t="s">
         <v>61</v>
@@ -2828,32 +3401,753 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="50" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="49" customWidth="1"/>
+    <col min="4" max="7" width="13" style="49" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="52" customWidth="1"/>
+    <col min="10" max="10" width="87.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.6640625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="49"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:12" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I2" s="7">
+        <v>100</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="7">
+        <v>200</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I4" s="7">
+        <v>300</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="7">
+        <v>400</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="46">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I6" s="7">
+        <v>500</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="7">
+        <v>600</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="7">
+        <v>700</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="7">
+        <v>800</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="7">
+        <v>900</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="46">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1200</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1300</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1400</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="46">
+        <v>42736</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1700</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1800</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1900</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="46">
+        <v>42736</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="48">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="7">
+        <v>2000</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"服务收入,商品销售"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+      <formula1>"5%,6%,11%,13%,17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22:H1048576">
+      <formula1>"3%,5%,6%,11%,13%,17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G1048576">
+      <formula1>"管理部门,销售部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F1048576">
+      <formula1>"服务类收入,商品类收入"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D1048576">
+      <formula1>"税控自开,税务代开,未开发票"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>